--- a/tabeli.xlsx
+++ b/tabeli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Eli\Becarios\CONICET\extranjeros\Marilia\archivos varios\Divulgación de PNTDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/dashboard_lonomia_AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD75FD2-E7AF-4FF5-9421-706CAE844DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9CD75FD2-E7AF-4FF5-9421-706CAE844DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE937DA-CEAD-493F-A34E-A5AA5F190CC1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +29,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>Variable</t>
   </si>
@@ -881,9 +884,6 @@
     <t>Mataojos</t>
   </si>
   <si>
-    <t>Anchico blanco</t>
-  </si>
-  <si>
     <t>Guazatunga blanca</t>
   </si>
   <si>
@@ -894,13 +894,43 @@
   </si>
   <si>
     <t>Araticú</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1DW9U4RzQP3kslVdfq_LjFlNhjFdBrrjj?usp=sharing</t>
+  </si>
+  <si>
+    <t>Anchico blanco, Farinha seca</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1efdsot8GcDkKuXvQgBriMvJPTVYVMOYc?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1o2FLH7PSvmhMgfVK_wYgHUsqBoGQcwrl?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1W-ttMPPI3i0vHiCXpduX3u3HuDJqQ6U1?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1YfkSrROhnclwHGZU4iV8ECUILr8tv5K7?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1w8SxMCz4Vr6mKgdCndeosh8vr0f3Ecgs?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1WVqDp7tQzJxKUw3W7KOVfT-kJ9VDfyl-?usp=sharing</t>
+  </si>
+  <si>
+    <t>Araticúm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +971,14 @@
       <color rgb="FF212529"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1011,10 +1049,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1071,9 +1110,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1104,8 +1140,19 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1390,15 +1437,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1473,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1484,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1498,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1462,7 +1509,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1520,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1531,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1506,7 +1553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1564,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +1575,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1589,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1600,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1611,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1622,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1636,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1647,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1680,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1644,7 +1691,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1655,7 +1702,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1713,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1727,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1738,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1749,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +1763,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1774,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1785,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>35</v>
@@ -1764,7 +1811,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>36</v>
@@ -1784,531 +1831,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="3" width="29.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="3" width="29.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="F1" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>4</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <f>D2/51</f>
         <v>7.8431372549019607E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="21">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <f t="shared" ref="E3:E27" si="0">D3/51</f>
         <v>3.9215686274509803E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="21">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="C8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="22">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="C14" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22">
         <f>D16/51</f>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="22">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="25">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="25">
-        <v>1</v>
-      </c>
-      <c r="E27" s="28">
+      <c r="C27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <v>18</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <f>D28/51</f>
         <v>0.35294117647058826</v>
       </c>
+      <c r="F28" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-      <sortCondition descending="1" ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F1" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{134E3B81-DAC9-4C51-9238-F9CC866D3594}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2320,14 +2391,14 @@
       <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2338,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>105</v>
       </c>
@@ -2349,7 +2420,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -2360,7 +2431,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2442,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
@@ -2382,7 +2453,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>98</v>
       </c>
@@ -2393,7 +2464,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
@@ -2404,7 +2475,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>86</v>
       </c>
@@ -2415,7 +2486,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>87</v>
       </c>
@@ -2426,7 +2497,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
@@ -2437,7 +2508,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>89</v>
       </c>
@@ -2448,7 +2519,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>90</v>
       </c>
@@ -2459,7 +2530,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
@@ -2470,7 +2541,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>92</v>
       </c>
@@ -2481,7 +2552,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
@@ -2492,7 +2563,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -2503,7 +2574,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>94</v>
       </c>
@@ -2514,7 +2585,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>95</v>
       </c>
@@ -2525,7 +2596,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>96</v>
       </c>
@@ -2536,7 +2607,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -2547,7 +2618,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>97</v>
       </c>
@@ -2558,7 +2629,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
@@ -2569,7 +2640,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>100</v>
       </c>
@@ -2580,7 +2651,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>101</v>
       </c>
@@ -2591,7 +2662,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>102</v>
       </c>
@@ -2602,7 +2673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>103</v>
       </c>
@@ -2613,7 +2684,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>104</v>
       </c>
